--- a/data/main-data/Cricket.xlsx
+++ b/data/main-data/Cricket.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICB_AP\Desktop\Resturant Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICB_AP\PycharmProjects\banglaText\data\main-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8AA578-2DF7-40F1-A378-9683CA06D9F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FCB268-82CD-48F0-88B3-D37C41AF0DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10905,8 +10905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2980"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2959" workbookViewId="0">
-      <selection activeCell="A2979" sqref="A2979:XFD2979"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10944,7 +10944,7 @@
         <v>43254</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -10978,7 +10978,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
